--- a/dragon-verse/Excels/TipsPlaylist_全局提示播报表.xlsx
+++ b/dragon-verse/Excels/TipsPlaylist_全局提示播报表.xlsx
@@ -41,7 +41,7 @@
   </si>
   <si>
     <t xml:space="preserve">播报对应环境（0：主世界
-其他：奶牛关表id）</t>
+其他：场景表id）</t>
   </si>
   <si>
     <t xml:space="preserve">Language</t>
@@ -196,7 +196,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
